--- a/bh3/514509611457552971_2021-04-17_12-00-04.xlsx
+++ b/bh3/514509611457552971_2021-04-17_12-00-04.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -545,10 +561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-23 19:45:11</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44309.82304398148</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -624,10 +638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-23 10:07:14</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44309.42168981482</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -695,10 +707,8 @@
           <t>4430189840</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-22 19:53:04</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44308.82851851852</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -774,10 +784,8 @@
           <t>4430189840</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-22 16:08:17</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44308.67241898148</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -854,10 +862,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:56:58</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44308.45622685185</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -925,10 +931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:53:46</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44308.45400462963</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -988,10 +992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:53:28</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44308.45379629629</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1051,10 +1053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:52:18</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44308.45298611111</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1120,10 +1120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:52:14</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44308.45293981482</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1183,10 +1181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:31:26</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44308.43849537037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1250,10 +1246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-22 08:48:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44308.36721064815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1317,10 +1311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-22 00:09:44</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44308.00675925926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1398,10 +1390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-21 21:50:52</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44307.91032407407</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1467,10 +1457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-21 21:50:45</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44307.91024305556</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1530,10 +1518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-21 15:01:21</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44307.6259375</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1601,10 +1587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-21 11:12:25</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44307.46695601852</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1672,10 +1656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-21 10:48:04</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44307.4500462963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1739,10 +1721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-21 08:05:07</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44307.33688657408</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1818,10 +1798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-21 06:03:17</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44307.25228009259</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1889,10 +1867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-20 23:47:03</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44306.99100694444</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1960,10 +1936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-20 21:06:40</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44306.87962962963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2039,10 +2013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-20 09:46:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44306.40725694445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2118,10 +2090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-20 06:14:22</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44306.25997685185</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2189,10 +2159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-19 19:44:31</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44305.82258101852</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -2256,10 +2224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-19 17:41:53</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44305.73741898148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2327,10 +2293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-19 17:30:57</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44305.72982638889</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2394,10 +2358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-19 16:29:49</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44305.68737268518</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2474,10 +2436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-19 13:36:26</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44305.56696759259</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2549,10 +2509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-19 12:25:51</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44305.51795138889</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2620,10 +2578,8 @@
           <t>4436250235</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-19 12:14:48</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44305.51027777778</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2683,10 +2639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-19 12:13:45</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44305.50954861111</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2746,10 +2700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-19 09:14:19</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44305.38494212963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2818,10 +2770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-19 08:01:47</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44305.33457175926</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2891,10 +2841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:32:16</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44305.02240740741</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2970,10 +2918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:31:48</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44305.02208333334</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3048,10 +2994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-18 23:33:53</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44304.98186342593</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3119,10 +3063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-18 21:02:06</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44304.87645833333</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3198,10 +3140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-18 17:31:39</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44304.7303125</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3269,10 +3209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-18 16:53:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44304.70409722222</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3344,10 +3282,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-18 15:17:04</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44304.63685185185</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3425,10 +3361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-18 12:55:25</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44304.5384837963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3504,10 +3438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-18 12:18:28</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44304.51282407407</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3583,10 +3515,8 @@
           <t>4429717178</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-18 10:58:00</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44304.45694444444</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3662,10 +3592,8 @@
           <t>4430826692</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-18 10:22:03</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44304.43197916666</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3737,10 +3665,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-18 10:04:23</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44304.41971064815</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3816,10 +3742,8 @@
           <t>4430720535</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-18 09:56:00</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44304.41388888889</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3892,10 +3816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-18 08:57:24</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44304.37319444444</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3957,10 +3879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-18 08:57:06</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44304.37298611111</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4024,10 +3944,8 @@
           <t>4430420415</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-18 08:25:30</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44304.35104166667</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4095,10 +4013,8 @@
           <t>4430189840</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-18 05:57:17</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44304.24811342593</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4174,10 +4090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-18 05:56:49</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44304.24778935185</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4253,10 +4167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-18 05:53:37</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44304.24556712963</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4328,10 +4240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-18 02:02:20</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44304.08495370371</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4391,10 +4301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-18 01:49:27</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44304.07600694444</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4462,10 +4370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-18 01:38:12</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44304.06819444444</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4525,10 +4431,8 @@
           <t>4429874863</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-18 01:31:39</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44304.06364583333</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4592,10 +4496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-18 00:51:55</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44304.03605324074</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4663,10 +4565,8 @@
           <t>4429722144</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-18 00:45:21</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44304.03149305555</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4742,10 +4642,8 @@
           <t>4429717178</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-18 00:43:59</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44304.03054398148</v>
       </c>
       <c r="I60" t="n">
         <v>5</v>
@@ -4813,10 +4711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-18 00:15:04</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44304.01046296296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4876,10 +4772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-18 00:08:27</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44304.00586805555</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4947,10 +4841,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-17 23:31:08</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44303.9799537037</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5026,10 +4918,8 @@
           <t>4429122237</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:52:32</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44303.95314814815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5094,10 +4984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:40:13</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44303.94459490741</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5165,10 +5053,8 @@
           <t>4426748450</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:36:07</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44303.94174768519</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -5232,10 +5118,8 @@
           <t>4425934581</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:33:41</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44303.94005787037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5307,10 +5191,8 @@
           <t>4426968759</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:24:58</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44303.93400462963</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5382,10 +5264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:04:48</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44303.92</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5463,10 +5343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:04:03</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44303.91947916667</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5532,10 +5410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-17 22:03:29</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44303.91908564815</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5599,10 +5475,8 @@
           <t>4428790283</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:54:58</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44303.9131712963</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5666,10 +5540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:40:08</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44303.90287037037</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5771,10 +5643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:32:59</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44303.89790509259</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5838,10 +5708,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:30:45</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44303.89635416667</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5909,10 +5777,8 @@
           <t>4428623202</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:26:23</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44303.89332175926</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5988,10 +5854,8 @@
           <t>4428577474</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:17:37</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44303.8872337963</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6059,10 +5923,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:09:31</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44303.8816087963</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6126,10 +5988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:05:20</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44303.8787037037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6193,10 +6053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-17 21:04:22</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44303.87803240741</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6270,10 +6128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-17 20:57:50</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44303.87349537037</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6349,10 +6205,8 @@
           <t>4428329299</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-17 20:30:51</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44303.85475694444</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6424,10 +6278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-17 20:17:49</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44303.84570601852</v>
       </c>
       <c r="I83" t="n">
         <v>9</v>
@@ -6491,10 +6343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-17 20:12:41</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44303.84214120371</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6557,10 +6407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-17 20:11:54</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44303.84159722222</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6625,10 +6473,8 @@
           <t>4428171852</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:59:35</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44303.83304398148</v>
       </c>
       <c r="I86" t="n">
         <v>6</v>
@@ -6704,10 +6550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:51:25</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44303.82737268518</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6775,10 +6619,8 @@
           <t>4426096766</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:49:16</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44303.82587962963</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6861,10 +6703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:43:16</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44303.82171296296</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6942,10 +6782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:41:06</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44303.82020833333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7017,10 +6855,8 @@
           <t>4426748450</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:28:46</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44303.81164351852</v>
       </c>
       <c r="I91" t="n">
         <v>6</v>
@@ -7088,10 +6924,8 @@
           <t>4426748450</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:22:34</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44303.80733796296</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7159,10 +6993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:10:50</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44303.79918981482</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7226,10 +7058,8 @@
           <t>4426748450</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-17 19:00:42</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44303.79215277778</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7293,10 +7123,8 @@
           <t>4427813897</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:55:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44303.78840277778</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7372,10 +7200,8 @@
           <t>4427813897</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:52:46</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44303.78664351852</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7439,10 +7265,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:49:02</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44303.78405092593</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7506,10 +7330,8 @@
           <t>4426670311</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:40:12</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44303.77791666667</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7581,10 +7403,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:35:52</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44303.77490740741</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7656,10 +7476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:32:52</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44303.77282407408</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7735,10 +7553,8 @@
           <t>4427669117</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:26:02</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44303.7680787037</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7802,10 +7618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:20:53</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44303.76450231481</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7881,10 +7695,8 @@
           <t>4426096766</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:14:45</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44303.76024305556</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7960,10 +7772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:08:49</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44303.75612268518</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8043,10 +7853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:06:31</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44303.75452546297</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8118,10 +7926,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:05:30</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44303.75381944444</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8197,10 +8003,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:04:16</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44303.75296296296</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8276,10 +8080,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-17 18:03:03</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44303.75211805556</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8355,10 +8157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:59:59</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44303.74998842592</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8430,10 +8230,8 @@
           <t>4425934581</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:58:10</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44303.74872685185</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8509,10 +8307,8 @@
           <t>4425934581</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:57:30</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44303.74826388889</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8588,10 +8384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:56:32</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44303.74759259259</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8655,10 +8449,8 @@
           <t>4425930276</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:55:57</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44303.7471875</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8736,10 +8528,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:52:01</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44303.74445601852</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8816,10 +8606,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:49:28</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44303.74268518519</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8895,10 +8683,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:45:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44303.74005787037</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8974,10 +8760,8 @@
           <t>4427456308</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:45:36</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44303.74</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -9049,10 +8833,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:45:21</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44303.73982638889</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9128,10 +8910,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:44:59</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44303.73957175926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9207,10 +8987,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:44:08</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44303.73898148148</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9286,10 +9064,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:42:02</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44303.73752314815</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9365,10 +9141,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:40:17</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44303.73630787037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9454,10 +9228,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:39:53</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44303.73603009259</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9525,10 +9297,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:37:21</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44303.73427083333</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9604,10 +9374,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:35:52</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44303.73324074074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9683,10 +9451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:35:06</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44303.73270833334</v>
       </c>
       <c r="I126" t="n">
         <v>9</v>
@@ -9762,10 +9528,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:35:02</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44303.73266203704</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9841,10 +9605,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:34:34</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44303.73233796296</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9920,10 +9682,8 @@
           <t>4427389492</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:33:01</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44303.73126157407</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9999,10 +9759,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:29:56</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44303.72912037037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10078,10 +9836,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:28:20</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44303.72800925926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10166,10 +9922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:17:07</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44303.72021990741</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10241,10 +9995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:17:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44303.72017361111</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10305,10 +10057,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:16:05</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44303.71950231482</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10384,10 +10134,8 @@
           <t>4426885005</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:13:42</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44303.71784722222</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10459,10 +10207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:13:26</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44303.71766203704</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10526,10 +10272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:12:57</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44303.71732638889</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10593,10 +10337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:12:40</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44303.71712962963</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10660,10 +10402,8 @@
           <t>4427257781</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-04-17 17:04:21</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44303.71135416667</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10735,10 +10475,8 @@
           <t>4427208302</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:54:32</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44303.70453703704</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10802,10 +10540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:54:15</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44303.70434027778</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10865,10 +10601,8 @@
           <t>4427182179</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:46:56</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44303.69925925926</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10936,10 +10670,8 @@
           <t>4427181337</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:46:20</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44303.6988425926</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11008,10 +10740,8 @@
           <t>4427161234</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:42:51</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44303.69642361111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11087,10 +10817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:42:44</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44303.69634259259</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11154,10 +10882,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:39:09</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44303.69385416667</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11233,10 +10959,8 @@
           <t>4427125515</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:35:10</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44303.69108796296</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11312,10 +11036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:27:18</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44303.685625</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11387,10 +11109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:25:36</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44303.68444444444</v>
       </c>
       <c r="I149" t="n">
         <v>3</v>
@@ -11454,10 +11174,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:23:33</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44303.68302083333</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11517,10 +11235,8 @@
           <t>4427072815</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:23:25</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44303.68292824074</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11588,10 +11304,8 @@
           <t>4427068052</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:22:50</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44303.68252314815</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11662,10 +11376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:22:26</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44303.68224537037</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11729,10 +11441,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:22:10</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44303.68206018519</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11808,10 +11518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:21:34</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44303.68164351852</v>
       </c>
       <c r="I155" t="n">
         <v>9</v>
@@ -11875,10 +11583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:19:41</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44303.68033564815</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11951,10 +11657,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:19:03</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44303.67989583333</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -12030,10 +11734,8 @@
           <t>4426999244</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:07:09</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44303.67163194445</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12097,10 +11799,8 @@
           <t>4426987289</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:02:33</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44303.6684375</v>
       </c>
       <c r="I159" t="n">
         <v>2</v>
@@ -12178,10 +11878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:02:29</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44303.6683912037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12249,10 +11947,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:02:06</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44303.668125</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12320,10 +12016,8 @@
           <t>4426978685</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-04-17 16:01:55</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44303.66799768519</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12399,10 +12093,8 @@
           <t>4426968759</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:59:58</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44303.66664351852</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12474,10 +12166,8 @@
           <t>4426655314</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:56:39</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44303.66434027778</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12549,10 +12239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:54:04</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44303.6625462963</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12624,10 +12312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:53:14</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44303.66196759259</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12695,10 +12381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:52:21</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44303.66135416667</v>
       </c>
       <c r="I167" t="n">
         <v>51</v>
@@ -12767,10 +12451,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:52:08</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44303.6612037037</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12838,10 +12520,8 @@
           <t>4426772381</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:49:16</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44303.65921296296</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12905,10 +12585,8 @@
           <t>4426926459</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:47:26</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44303.65793981482</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12972,10 +12650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:42:15</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44303.65434027778</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13039,10 +12715,8 @@
           <t>4426885005</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:36:23</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44303.6502662037</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13110,10 +12784,8 @@
           <t>4426863600</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:33:32</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44303.64828703704</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13173,10 +12845,8 @@
           <t>4426851634</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:28:41</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44303.64491898148</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13248,10 +12918,8 @@
           <t>4425974822</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:28:34</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44303.64483796297</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13319,10 +12987,8 @@
           <t>4426772381</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:27:56</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44303.64439814815</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13382,10 +13048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:25:35</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44303.6427662037</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13457,10 +13121,8 @@
           <t>4426825643</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:21:16</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44303.63976851852</v>
       </c>
       <c r="I178" t="n">
         <v>5</v>
@@ -13532,10 +13194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:19:58</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44303.63886574074</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13600,10 +13260,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:12:46</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44303.63386574074</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13679,10 +13337,8 @@
           <t>4426781411</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:10:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44303.63210648148</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13746,10 +13402,8 @@
           <t>4426772381</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:09:38</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44303.63168981481</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13813,10 +13467,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:07:24</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44303.63013888889</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13884,10 +13536,8 @@
           <t>4426742150</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:01:50</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44303.62627314815</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13955,10 +13605,8 @@
           <t>4426746635</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:01:48</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44303.62625</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14030,10 +13678,8 @@
           <t>4426745799</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-04-17 15:01:11</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44303.62582175926</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14105,10 +13751,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:58:42</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44303.62409722222</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14176,10 +13820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:58:11</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44303.62373842593</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14243,10 +13885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:55:59</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44303.62221064815</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14323,10 +13963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:55:46</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44303.62206018518</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14398,10 +14036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:55:12</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44303.62166666667</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14477,10 +14113,8 @@
           <t>4426715027</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:52:50</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44303.62002314815</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14548,10 +14182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:52:00</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44303.61944444444</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14627,10 +14259,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:51:32</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44303.61912037037</v>
       </c>
       <c r="I194" t="n">
         <v>5</v>
@@ -14702,10 +14332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:51:16</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44303.61893518519</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14781,10 +14409,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:48:41</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44303.6171412037</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14848,10 +14474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:47:22</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44303.61622685185</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14911,10 +14535,8 @@
           <t>4426682936</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:46:48</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44303.61583333334</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14982,10 +14604,8 @@
           <t>4426690739</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:46:08</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44303.61537037037</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -15061,10 +14681,8 @@
           <t>4426669063</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:43:48</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44303.61375</v>
       </c>
       <c r="I200" t="n">
         <v>5</v>
@@ -15140,10 +14758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:42:54</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44303.613125</v>
       </c>
       <c r="I201" t="n">
         <v>32</v>
@@ -15207,10 +14823,8 @@
           <t>4426670311</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:41:27</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44303.61211805556</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15288,10 +14902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:39:38</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44303.61085648148</v>
       </c>
       <c r="I203" t="n">
         <v>167</v>
@@ -15355,10 +14967,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:39:22</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44303.61067129629</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15443,10 +15053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:37:33</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44303.60940972222</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15514,10 +15122,8 @@
           <t>4426655314</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:37:28</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44303.60935185185</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15581,10 +15187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:37:22</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44303.60928240741</v>
       </c>
       <c r="I207" t="n">
         <v>6</v>
@@ -15652,10 +15256,8 @@
           <t>4426638036</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:35:08</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44303.60773148148</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15727,10 +15329,8 @@
           <t>4426640726</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:33:53</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44303.60686342593</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15798,10 +15398,8 @@
           <t>4426440860</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:33:00</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44303.60625</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15865,10 +15463,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:32:22</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44303.60581018519</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -15936,10 +15532,8 @@
           <t>4426632647</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:31:56</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44303.60550925926</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -16003,10 +15597,8 @@
           <t>4426612787</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:27:42</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44303.60256944445</v>
       </c>
       <c r="I213" t="n">
         <v>9</v>
@@ -16066,10 +15658,8 @@
           <t>4426578571</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:26:35</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44303.60179398148</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16142,10 +15732,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:25:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44303.60086805555</v>
       </c>
       <c r="I215" t="n">
         <v>3</v>
@@ -16221,10 +15809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:23:25</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44303.59959490741</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16292,10 +15878,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:22:28</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44303.59893518518</v>
       </c>
       <c r="I217" t="n">
         <v>3</v>
@@ -16371,10 +15955,8 @@
           <t>4426578571</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:22:25</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44303.59890046297</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16452,10 +16034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:22:23</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44303.59887731481</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16527,10 +16107,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:17:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44303.59569444445</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16602,10 +16180,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:16:27</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44303.59475694445</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -16665,10 +16241,8 @@
           <t>4426561251</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:14:43</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44303.59355324074</v>
       </c>
       <c r="I222" t="n">
         <v>28</v>
@@ -16745,10 +16319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:14:17</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44303.59325231481</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16824,10 +16396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:13:59</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44303.59304398148</v>
       </c>
       <c r="I224" t="n">
         <v>15</v>
@@ -16899,10 +16469,8 @@
           <t>4426548926</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:13:00</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44303.59236111111</v>
       </c>
       <c r="I225" t="n">
         <v>6</v>
@@ -16978,10 +16546,8 @@
           <t>4426548869</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:12:58</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44303.59233796296</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -17045,10 +16611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:12:04</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44303.59171296296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17112,10 +16676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:11:31</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44303.59133101852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17179,10 +16741,8 @@
           <t>4426537455</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:08:46</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44303.5894212963</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17258,10 +16818,8 @@
           <t>4426532931</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:08:39</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44303.58934027778</v>
       </c>
       <c r="I230" t="n">
         <v>9</v>
@@ -17337,10 +16895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:06:53</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44303.58811342593</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17416,10 +16972,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:05:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44303.58686342592</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17483,10 +17037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:03:45</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44303.5859375</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17554,10 +17106,8 @@
           <t>4426159686</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:01:51</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44303.58461805555</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17625,10 +17175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:01:44</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44303.58453703704</v>
       </c>
       <c r="I235" t="n">
         <v>37</v>
@@ -17696,10 +17244,8 @@
           <t>4426159686</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-04-17 14:01:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44303.58446759259</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17767,10 +17313,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:59:42</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44303.583125</v>
       </c>
       <c r="I237" t="n">
         <v>8</v>
@@ -17846,10 +17390,8 @@
           <t>4426497316</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:57:54</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44303.581875</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17921,10 +17463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:56:55</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44303.58119212963</v>
       </c>
       <c r="I239" t="n">
         <v>9</v>
@@ -18000,10 +17540,8 @@
           <t>4426485164</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:55:52</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44303.58046296296</v>
       </c>
       <c r="I240" t="n">
         <v>6</v>
@@ -18071,10 +17609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:51:38</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44303.57752314815</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18134,10 +17670,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:51:14</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44303.57724537037</v>
       </c>
       <c r="I242" t="n">
         <v>9</v>
@@ -18213,10 +17747,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:49:51</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44303.57628472222</v>
       </c>
       <c r="I243" t="n">
         <v>5</v>
@@ -18296,10 +17828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:48:30</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44303.57534722222</v>
       </c>
       <c r="I244" t="n">
         <v>78</v>
@@ -18367,10 +17897,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:48:13</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44303.57515046297</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18442,10 +17970,8 @@
           <t>4426409929</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:47:47</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44303.57484953704</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18521,10 +18047,8 @@
           <t>4426453164</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:47:46</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44303.57483796297</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18588,10 +18112,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:46:22</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44303.57386574074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18667,10 +18189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:46:08</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44303.5737037037</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18742,10 +18262,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:46:01</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44303.57362268519</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18813,10 +18331,8 @@
           <t>4426440860</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:45:38</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44303.57335648148</v>
       </c>
       <c r="I251" t="n">
         <v>4</v>
@@ -18884,10 +18400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:43:54</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44303.57215277778</v>
       </c>
       <c r="I252" t="n">
         <v>29</v>
@@ -18951,10 +18465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:40:30</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44303.56979166667</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19030,10 +18542,8 @@
           <t>4426409929</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:38:38</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44303.56849537037</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -19093,10 +18603,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:38:17</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44303.56825231481</v>
       </c>
       <c r="I255" t="n">
         <v>10</v>
@@ -19172,10 +18680,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:37:30</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44303.56770833334</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19235,10 +18741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:36:54</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44303.56729166667</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19310,10 +18814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:35:50</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44303.56655092593</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19386,10 +18888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:35:47</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44303.5665162037</v>
       </c>
       <c r="I259" t="n">
         <v>8</v>
@@ -19457,10 +18957,8 @@
           <t>4426179239</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:35:16</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44303.5661574074</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19528,10 +19026,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:34:21</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44303.56552083333</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19603,10 +19099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:33:44</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44303.56509259259</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19674,10 +19168,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:31:07</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44303.56327546296</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19756,10 +19248,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:30:56</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44303.56314814815</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19835,10 +19325,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:30:21</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44303.56274305555</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19917,10 +19405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:27:10</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44303.56053240741</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19996,10 +19482,8 @@
           <t>4426179239</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:26:26</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44303.56002314815</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -20071,10 +19555,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:24:10</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44303.55844907407</v>
       </c>
       <c r="I268" t="n">
         <v>19</v>
@@ -20150,10 +19632,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:22:12</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44303.55708333333</v>
       </c>
       <c r="I269" t="n">
         <v>5</v>
@@ -20229,10 +19709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:21:57</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44303.55690972223</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20310,10 +19788,8 @@
           <t>4426324821</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:21:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44303.55625</v>
       </c>
       <c r="I271" t="n">
         <v>19</v>
@@ -20381,10 +19857,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:20:30</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44303.55590277778</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20444,10 +19918,8 @@
           <t>4426321909</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:19:01</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44303.55487268518</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20519,10 +19991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:18:45</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44303.5546875</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20599,10 +20069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:18:16</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44303.55435185185</v>
       </c>
       <c r="I275" t="n">
         <v>7</v>
@@ -20666,10 +20134,8 @@
           <t>4426312199</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:16:37</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44303.55320601852</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20737,10 +20203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:16:22</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44303.55303240741</v>
       </c>
       <c r="I277" t="n">
         <v>13</v>
@@ -20812,10 +20276,8 @@
           <t>4426307502</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:16:07</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44303.5528587963</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -20888,10 +20350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:15:56</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44303.55273148148</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20967,10 +20427,8 @@
           <t>4426159686</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:14:30</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44303.55173611111</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21038,10 +20496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:14:08</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44303.55148148148</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21117,10 +20573,8 @@
           <t>4426287164</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:11:11</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44303.54943287037</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -21196,10 +20650,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:58</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44303.54928240741</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21267,10 +20719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:45</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44303.54913194444</v>
       </c>
       <c r="I284" t="n">
         <v>252</v>
@@ -21335,10 +20785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:37</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44303.54903935185</v>
       </c>
       <c r="I285" t="n">
         <v>106</v>
@@ -21405,10 +20853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:21</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44303.54885416666</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21472,10 +20918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44303.54876157407</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21539,10 +20983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:10</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44303.54872685186</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21607,10 +21049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:06</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44303.54868055556</v>
       </c>
       <c r="I289" t="n">
         <v>357</v>
@@ -21678,10 +21118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:10:02</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44303.54863425926</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21754,10 +21192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:59</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44303.54859953704</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21825,10 +21261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:56</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44303.54856481482</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21888,10 +21322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:55</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44303.54855324074</v>
       </c>
       <c r="I293" t="n">
         <v>101</v>
@@ -21955,10 +21387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:52</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44303.54851851852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22025,10 +21455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:48</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44303.54847222222</v>
       </c>
       <c r="I295" t="n">
         <v>581</v>
@@ -22092,10 +21520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:44</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44303.54842592592</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22159,10 +21585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:40</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44303.54837962963</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22226,10 +21650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:09:27</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44303.54822916666</v>
       </c>
       <c r="I298" t="n">
         <v>7</v>
@@ -22301,10 +21723,8 @@
           <t>4426069070</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:07:30</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44303.546875</v>
       </c>
       <c r="I299" t="n">
         <v>4</v>
@@ -22372,10 +21792,8 @@
           <t>4426159686</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:07:24</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44303.54680555555</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22443,10 +21861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:06:25</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44303.54612268518</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22522,10 +21938,8 @@
           <t>4426159686</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:06:13</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44303.5459837963</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22601,10 +22015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:06:12</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44303.54597222222</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22680,10 +22092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:06:04</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44303.54587962963</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22755,10 +22165,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:05:06</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44303.54520833334</v>
       </c>
       <c r="I305" t="n">
         <v>3</v>
@@ -22834,10 +22242,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:04:55</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44303.54508101852</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22913,10 +22319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:04:45</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44303.54496527778</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22980,10 +22384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:04:00</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44303.54444444444</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23051,10 +22453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:02:59</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44303.54373842593</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23126,10 +22526,8 @@
           <t>4426217310</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:02:51</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44303.54364583334</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23205,10 +22603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:02:20</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44303.54328703704</v>
       </c>
       <c r="I311" t="n">
         <v>78</v>
@@ -23285,10 +22681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-04-17 13:02:17</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44303.54325231481</v>
       </c>
       <c r="I312" t="n">
         <v>17</v>
@@ -23365,10 +22759,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:59:03</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44303.54100694445</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23438,10 +22830,8 @@
           <t>4426217310</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:58:59</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44303.54096064815</v>
       </c>
       <c r="I314" t="n">
         <v>2</v>
@@ -23505,10 +22895,8 @@
           <t>4426173888</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:58:24</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44303.54055555556</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23584,10 +22972,8 @@
           <t>4426221330</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:58:00</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44303.54027777778</v>
       </c>
       <c r="I316" t="n">
         <v>5</v>
@@ -23657,10 +23043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:57:46</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44303.54011574074</v>
       </c>
       <c r="I317" t="n">
         <v>87</v>
@@ -23732,10 +23116,8 @@
           <t>4426069070</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:57:42</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44303.54006944445</v>
       </c>
       <c r="I318" t="n">
         <v>5</v>
@@ -23811,10 +23193,8 @@
           <t>4426217310</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:57:15</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44303.53975694445</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23886,10 +23266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:54:36</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44303.53791666667</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23957,10 +23335,8 @@
           <t>4425946865</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:52:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44303.53634259259</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -24024,10 +23400,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:52:10</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44303.53622685185</v>
       </c>
       <c r="I322" t="n">
         <v>14</v>
@@ -24099,10 +23473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:51:55</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44303.53605324074</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24166,10 +23538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:51:24</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44303.53569444444</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24245,10 +23615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:51:20</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44303.53564814815</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24320,10 +23688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:50:56</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44303.53537037037</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24383,10 +23749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:50:56</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44303.53537037037</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24454,10 +23818,8 @@
           <t>4426179239</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:50:48</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44303.53527777778</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24525,10 +23887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:50:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44303.5352662037</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24596,10 +23956,8 @@
           <t>4426054091</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:50:33</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44303.53510416667</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24675,10 +24033,8 @@
           <t>4426153449</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:50:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44303.53503472222</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24754,10 +24110,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:49:16</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44303.53421296296</v>
       </c>
       <c r="I332" t="n">
         <v>3</v>
@@ -24829,10 +24183,8 @@
           <t>4426069070</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:49:15</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44303.53420138889</v>
       </c>
       <c r="I333" t="n">
         <v>19</v>
@@ -24900,10 +24252,8 @@
           <t>4426173888</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:49:01</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44303.53403935185</v>
       </c>
       <c r="I334" t="n">
         <v>3</v>
@@ -24979,10 +24329,8 @@
           <t>4426172985</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:48:28</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44303.53365740741</v>
       </c>
       <c r="I335" t="n">
         <v>4</v>
@@ -25053,10 +24401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:48:14</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44303.53349537037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25120,10 +24466,8 @@
           <t>4426167821</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:48:10</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44303.53344907407</v>
       </c>
       <c r="I337" t="n">
         <v>21</v>
@@ -25206,10 +24550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:47:58</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44303.53331018519</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25273,10 +24615,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:47:30</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44303.53298611111</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25344,10 +24684,8 @@
           <t>4426153449</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:47:10</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44303.53275462963</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25415,10 +24753,8 @@
           <t>4426162646</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:46:59</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44303.53262731482</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25486,10 +24822,8 @@
           <t>4426162463</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:46:52</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44303.53254629629</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25557,10 +24891,8 @@
           <t>4426170183</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:46:48</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44303.5325</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25632,10 +24964,8 @@
           <t>4426159686</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:46:22</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44303.53219907408</v>
       </c>
       <c r="I344" t="n">
         <v>3</v>
@@ -25703,10 +25033,8 @@
           <t>4426153449</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:45:44</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44303.53175925926</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25782,10 +25110,8 @@
           <t>4426118032</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:45:34</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44303.53164351852</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25845,10 +25171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:45:27</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44303.5315625</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25912,10 +25236,8 @@
           <t>4426157287</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:44:59</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44303.53123842592</v>
       </c>
       <c r="I348" t="n">
         <v>3</v>
@@ -25979,10 +25301,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:44:44</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44303.53106481482</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26061,10 +25381,8 @@
           <t>4426151722</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:44:40</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44303.53101851852</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26132,10 +25450,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:44:34</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44303.53094907408</v>
       </c>
       <c r="I351" t="n">
         <v>17</v>
@@ -26199,10 +25515,8 @@
           <t>4426054091</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:44:26</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44303.53085648148</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26281,10 +25595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:44:09</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44303.53065972222</v>
       </c>
       <c r="I353" t="n">
         <v>97</v>
@@ -26349,10 +25661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:43:26</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44303.53016203704</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26428,10 +25738,8 @@
           <t>4426146363</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:43:18</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44303.53006944444</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26499,10 +25807,8 @@
           <t>4426145916</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:43:03</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44303.52989583334</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26562,10 +25868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:42:39</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44303.52961805555</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26629,10 +25933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:42:26</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44303.52946759259</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26704,10 +26006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:41:50</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44303.52905092593</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26775,10 +26075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:41:09</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44303.52857638889</v>
       </c>
       <c r="I360" t="n">
         <v>14</v>
@@ -26854,10 +26152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:40:53</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44303.5283912037</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26921,10 +26217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:40:42</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44303.52826388889</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27000,10 +26294,8 @@
           <t>4426054091</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:40:40</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44303.52824074074</v>
       </c>
       <c r="I363" t="n">
         <v>3</v>
@@ -27075,10 +26367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:40:37</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44303.52820601852</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27146,10 +26436,8 @@
           <t>4426124328</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:40:09</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44303.52788194444</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27217,10 +26505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:40:02</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44303.52780092593</v>
       </c>
       <c r="I366" t="n">
         <v>4</v>
@@ -27296,10 +26582,8 @@
           <t>4426062602</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:39:56</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44303.52773148148</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27375,10 +26659,8 @@
           <t>4426112610</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:39:46</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44303.52761574074</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27442,10 +26724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:39:30</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44303.52743055556</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27524,10 +26804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:39:08</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44303.52717592593</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27614,10 +26892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:57</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44303.52704861111</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27686,10 +26962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:53</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44303.52700231481</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27765,10 +27039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:44</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44303.52689814815</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27846,10 +27118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:30</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44303.52673611111</v>
       </c>
       <c r="I374" t="n">
         <v>86</v>
@@ -27925,10 +27195,8 @@
           <t>4426118032</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:28</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44303.52671296296</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -28011,10 +27279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:23</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44303.5266550926</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28090,10 +27356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:15</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44303.5265625</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28169,10 +27433,8 @@
           <t>4426117362</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:05</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44303.52644675926</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28240,10 +27502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:00</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44303.52638888889</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28321,10 +27581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:38:00</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44303.52638888889</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28407,10 +27665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:37:52</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44303.5262962963</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28486,10 +27742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:37:44</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44303.5262037037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28557,10 +27811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:37:22</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44303.52594907407</v>
       </c>
       <c r="I383" t="n">
         <v>63</v>
@@ -28638,10 +27890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:37:01</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44303.52570601852</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28709,10 +27959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:36:48</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44303.52555555556</v>
       </c>
       <c r="I385" t="n">
         <v>16</v>
@@ -28788,10 +28036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:36:44</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44303.52550925926</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28859,10 +28105,8 @@
           <t>4426112610</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:36:42</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44303.52548611111</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28930,10 +28174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:36:16</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44303.52518518519</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -29001,10 +28243,8 @@
           <t>4426096766</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:36:14</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44303.52516203704</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29072,10 +28312,8 @@
           <t>4426107146</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:35:54</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44303.52493055556</v>
       </c>
       <c r="I390" t="n">
         <v>18</v>
@@ -29143,10 +28381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:35:38</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44303.52474537037</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29214,10 +28450,8 @@
           <t>4426106644</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:35:36</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44303.52472222222</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29289,10 +28523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:34:00</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44303.52361111111</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29364,10 +28596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:33:32</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44303.52328703704</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29427,10 +28657,8 @@
           <t>4426096766</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:33:32</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44303.52328703704</v>
       </c>
       <c r="I395" t="n">
         <v>4</v>
@@ -29506,10 +28734,8 @@
           <t>4426082384</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:33:23</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44303.52318287037</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29569,10 +28795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:32:38</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44303.52266203704</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29640,10 +28864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:31:51</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44303.52211805555</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29711,10 +28933,8 @@
           <t>4426086084</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:31:47</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44303.52207175926</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29786,10 +29006,8 @@
           <t>4426082384</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:31:07</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44303.5216087963</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29865,10 +29083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:30:49</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44303.52140046296</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29940,10 +29156,8 @@
           <t>4425934581</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:30:45</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44303.52135416667</v>
       </c>
       <c r="I402" t="n">
         <v>8</v>
@@ -30012,10 +29226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:30:34</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44303.52122685185</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30091,10 +29303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:30:30</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44303.52118055556</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30158,10 +29368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:30:08</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44303.52092592593</v>
       </c>
       <c r="I405" t="n">
         <v>7</v>
@@ -30225,10 +29433,8 @@
           <t>4426069244</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:29:28</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44303.52046296297</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30296,10 +29502,8 @@
           <t>4426071805</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:29:24</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44303.52041666667</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30371,10 +29575,8 @@
           <t>4426069070</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:29:22</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44303.52039351852</v>
       </c>
       <c r="I408" t="n">
         <v>58</v>
@@ -30450,10 +29652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:29:11</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44303.5202662037</v>
       </c>
       <c r="I409" t="n">
         <v>1350</v>
@@ -30557,10 +29757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:28:55</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44303.52008101852</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30628,10 +29826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:28:39</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44303.51989583333</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30707,10 +29903,8 @@
           <t>4426070344</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:28:34</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44303.51983796297</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30786,10 +29980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:27:48</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44303.51930555556</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30857,10 +30049,8 @@
           <t>4425939197</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:27:41</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44303.51922453703</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30933,10 +30123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:26:55</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44303.51869212963</v>
       </c>
       <c r="I415" t="n">
         <v>32</v>
@@ -31000,10 +30188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:26:39</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44303.51850694444</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31071,10 +30257,8 @@
           <t>4426053952</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:26:33</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44303.5184375</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31150,10 +30334,8 @@
           <t>4425946865</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:26:30</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44303.51840277778</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31217,10 +30399,8 @@
           <t>4426060970</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:26:26</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44303.51835648148</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -31299,10 +30479,8 @@
           <t>4426044344</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:25:11</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44303.51748842592</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31374,10 +30552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:24:55</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44303.51730324074</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31449,10 +30625,8 @@
           <t>4426047428</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:24:19</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44303.51688657407</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31520,10 +30694,8 @@
           <t>4426045515</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:23:11</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44303.51609953704</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31583,10 +30755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:22:49</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44303.51584490741</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31663,10 +30833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:22:35</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44303.51568287037</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31726,10 +30894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:22:33</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44303.51565972222</v>
       </c>
       <c r="I426" t="n">
         <v>241</v>
@@ -31793,10 +30959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:22:26</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44303.5155787037</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31872,10 +31036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:22:19</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44303.51549768518</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31951,10 +31113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:21:28</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44303.51490740741</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -32019,10 +31179,8 @@
           <t>4426023308</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:20:39</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44303.51434027778</v>
       </c>
       <c r="I430" t="n">
         <v>4</v>
@@ -32096,10 +31254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:20:30</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44303.51423611111</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32163,10 +31319,8 @@
           <t>4426022889</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:20:26</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44303.51418981481</v>
       </c>
       <c r="I432" t="n">
         <v>4</v>
@@ -32242,10 +31396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:20:24</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44303.51416666667</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32317,10 +31469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:20:24</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44303.51416666667</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32384,10 +31534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:20:04</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44303.51393518518</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32451,10 +31599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:19:01</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44303.51320601852</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32522,10 +31668,8 @@
           <t>4426009702</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:18:38</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44303.51293981481</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32601,10 +31745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:18:36</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44303.51291666667</v>
       </c>
       <c r="I438" t="n">
         <v>4</v>
@@ -32672,10 +31814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:18:30</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44303.51284722222</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32751,10 +31891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:18:06</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44303.51256944444</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32814,10 +31952,8 @@
           <t>4426011200</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:17:40</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44303.51226851852</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32895,10 +32031,8 @@
           <t>4425968492</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:17:38</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44303.51224537037</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32974,10 +32108,8 @@
           <t>4425939197</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:17:15</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44303.51197916667</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -33050,10 +32182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:17:07</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44303.51188657407</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33121,10 +32251,8 @@
           <t>4425968492</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:51</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44303.51170138889</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33196,10 +32324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:47</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44303.5116550926</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -33267,10 +32393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:42</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44303.51159722222</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33334,10 +32458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:36</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44303.51152777778</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33413,10 +32535,8 @@
           <t>4426005882</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:33</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44303.51149305556</v>
       </c>
       <c r="I449" t="n">
         <v>6</v>
@@ -33484,10 +32604,8 @@
           <t>4425938429</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:22</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44303.51136574074</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33559,10 +32677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:05</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44303.51116898148</v>
       </c>
       <c r="I451" t="n">
         <v>4</v>
@@ -33634,10 +32750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:16:05</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44303.51116898148</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33709,10 +32823,8 @@
           <t>4425939197</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:15:52</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44303.51101851852</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33786,10 +32898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:15:38</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44303.51085648148</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33861,10 +32971,8 @@
           <t>4425996978</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:15:16</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44303.51060185185</v>
       </c>
       <c r="I455" t="n">
         <v>7</v>
@@ -33928,10 +33036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:15:09</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44303.51052083333</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -34007,10 +33113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:14:46</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44303.51025462963</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34078,10 +33182,8 @@
           <t>4425989993</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:14:20</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44303.5099537037</v>
       </c>
       <c r="I458" t="n">
         <v>4</v>
@@ -34149,10 +33251,8 @@
           <t>4425989647</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:14:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44303.50982638889</v>
       </c>
       <c r="I459" t="n">
         <v>2</v>
@@ -34216,10 +33316,8 @@
           <t>4425984930</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:14:08</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44303.50981481482</v>
       </c>
       <c r="I460" t="n">
         <v>4</v>
@@ -34286,10 +33384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:14:00</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44303.50972222222</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34357,10 +33453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:13:56</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44303.50967592592</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34424,10 +33518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:13:12</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44303.50916666666</v>
       </c>
       <c r="I463" t="n">
         <v>1</v>
@@ -34500,10 +33592,8 @@
           <t>4425933655</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:13:05</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44303.50908564815</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34575,10 +33665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:13:01</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44303.50903935185</v>
       </c>
       <c r="I465" t="n">
         <v>5</v>
@@ -34638,10 +33726,8 @@
           <t>4425938429</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:12:58</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44303.50900462963</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34713,10 +33799,8 @@
           <t>4425933565</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:12:48</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44303.50888888889</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34788,10 +33872,8 @@
           <t>4425933476</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:12:38</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44303.50877314815</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34863,10 +33945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:12:33</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44303.50871527778</v>
       </c>
       <c r="I469" t="n">
         <v>140</v>
@@ -34934,10 +34014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:12:14</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44303.50849537037</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35007,10 +34085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:11:58</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44303.50831018519</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35074,10 +34150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:11:25</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44303.50792824074</v>
       </c>
       <c r="I472" t="n">
         <v>41</v>
@@ -35153,10 +34227,8 @@
           <t>4425974822</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:11:24</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44303.50791666667</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35220,10 +34292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:11:23</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44303.50790509259</v>
       </c>
       <c r="I474" t="n">
         <v>3</v>
@@ -35291,10 +34361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:11:18</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44303.50784722222</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35371,10 +34439,8 @@
           <t>4425949472</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:11:05</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44303.50769675926</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35450,10 +34516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:39</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44303.50739583333</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35525,10 +34589,8 @@
           <t>4425973197</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:28</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44303.50726851852</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35596,10 +34658,8 @@
           <t>4425968492</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:24</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44303.50722222222</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35675,10 +34735,8 @@
           <t>4425970789</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:24</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44303.50722222222</v>
       </c>
       <c r="I480" t="n">
         <v>1</v>
@@ -35742,10 +34800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:17</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44303.50714120371</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35821,10 +34877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:16</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44303.50712962963</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35900,10 +34954,8 @@
           <t>4425970789</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:15</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44303.50711805555</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35971,10 +35023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:14</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44303.50710648148</v>
       </c>
       <c r="I484" t="n">
         <v>41</v>
@@ -36050,10 +35100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:04</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44303.50699074074</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36121,10 +35169,8 @@
           <t>4425964041</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:10:02</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44303.50696759259</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36192,10 +35238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:09:30</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44303.50659722222</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36259,10 +35303,8 @@
           <t>4425970789</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:09:07</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44303.50633101852</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36339,10 +35381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:09:01</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44303.50626157408</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36418,10 +35458,8 @@
           <t>4425970513</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:58</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44303.50622685185</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36489,10 +35527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:56</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44303.50620370371</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36568,10 +35604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:47</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44303.50609953704</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36647,10 +35681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:47</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44303.50609953704</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36714,10 +35746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:41</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44303.50603009259</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36789,10 +35819,8 @@
           <t>4425961378</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:33</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44303.5059375</v>
       </c>
       <c r="I495" t="n">
         <v>3</v>
@@ -36860,10 +35888,8 @@
           <t>4425949472</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:08:29</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44303.50589120371</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36939,10 +35965,8 @@
           <t>4425929616</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:55</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44303.50549768518</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -37014,10 +36038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:38</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44303.50530092593</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37085,10 +36107,8 @@
           <t>4425949472</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44303.50519675926</v>
       </c>
       <c r="I499" t="n">
         <v>5</v>
@@ -37173,10 +36193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:27</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44303.50517361111</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37249,10 +36267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:27</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44303.50517361111</v>
       </c>
       <c r="I501" t="n">
         <v>44</v>
@@ -37328,10 +36344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:26</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44303.50516203704</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37391,10 +36405,8 @@
           <t>4425953424</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:25</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44303.50515046297</v>
       </c>
       <c r="I503" t="n">
         <v>7</v>
@@ -37466,10 +36478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:17</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44303.50505787037</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37545,10 +36555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:10</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44303.50497685185</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37620,10 +36628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:07:04</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44303.5049074074</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37691,10 +36697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:59</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44303.50484953704</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37762,10 +36766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:40</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44303.50462962963</v>
       </c>
       <c r="I508" t="n">
         <v>202</v>
@@ -37841,10 +36843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:38</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44303.50460648148</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37908,10 +36908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:34</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44303.50456018518</v>
       </c>
       <c r="I510" t="n">
         <v>12</v>
@@ -38019,10 +37017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:20</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44303.50439814815</v>
       </c>
       <c r="I511" t="n">
         <v>49</v>
@@ -38094,10 +37090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:11</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44303.50429398148</v>
       </c>
       <c r="I512" t="n">
         <v>7</v>
@@ -38173,10 +37167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:04</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44303.50421296297</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38240,10 +37232,8 @@
           <t>4425946865</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:06:00</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44303.50416666667</v>
       </c>
       <c r="I514" t="n">
         <v>3</v>
@@ -38307,10 +37297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:05:54</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44303.50409722222</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38378,10 +37366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:05:34</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44303.50386574074</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38457,10 +37443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:05:11</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44303.50359953703</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38528,10 +37512,8 @@
           <t>4425939267</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:58</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44303.50344907407</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38608,10 +37590,8 @@
           <t>4425939197</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:56</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44303.50342592593</v>
       </c>
       <c r="I519" t="n">
         <v>5</v>
@@ -38684,10 +37664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:53</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44303.5033912037</v>
       </c>
       <c r="I520" t="n">
         <v>27</v>
@@ -38763,10 +37741,8 @@
           <t>4425934581</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:43</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44303.50327546296</v>
       </c>
       <c r="I521" t="n">
         <v>28</v>
@@ -38837,10 +37813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:40</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44303.50324074074</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38907,10 +37881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:34</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44303.5031712963</v>
       </c>
       <c r="I523" t="n">
         <v>37</v>
@@ -38982,10 +37954,8 @@
           <t>4425938429</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:29</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44303.50311342593</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -39053,10 +38023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:28</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44303.50310185185</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39120,10 +38088,8 @@
           <t>4425933744</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:14</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44303.50293981482</v>
       </c>
       <c r="I526" t="n">
         <v>14</v>
@@ -39187,10 +38153,8 @@
           <t>4425933655</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:11</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44303.5029050926</v>
       </c>
       <c r="I527" t="n">
         <v>1</v>
@@ -39266,10 +38230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:08</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44303.50287037037</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39341,10 +38303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:08</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44303.50287037037</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39412,10 +38372,8 @@
           <t>4425933565</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:08</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44303.50287037037</v>
       </c>
       <c r="I530" t="n">
         <v>2</v>
@@ -39491,10 +38449,8 @@
           <t>4425933476</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:05</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44303.50283564815</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39562,10 +38518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:03</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44303.5028125</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39629,10 +38583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:04:01</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44303.50278935185</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39700,10 +38652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:51</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44303.50267361111</v>
       </c>
       <c r="I534" t="n">
         <v>5</v>
@@ -39771,10 +38721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:50</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44303.50266203703</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39842,10 +38790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:39</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44303.50253472223</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39921,10 +38867,8 @@
           <t>4425932649</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:38</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44303.50252314815</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39996,10 +38940,8 @@
           <t>4425932652</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:38</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44303.50252314815</v>
       </c>
       <c r="I538" t="n">
         <v>20</v>
@@ -40072,10 +39014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:37</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44303.50251157407</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40147,10 +39087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:35</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44303.50248842593</v>
       </c>
       <c r="I540" t="n">
         <v>7</v>
@@ -40226,10 +39164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:34</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44303.50247685185</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40301,10 +39237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:32</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44303.5024537037</v>
       </c>
       <c r="I542" t="n">
         <v>88</v>
@@ -40372,10 +39306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:30</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44303.50243055556</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40447,10 +39379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:24</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44303.50236111111</v>
       </c>
       <c r="I544" t="n">
         <v>6</v>
@@ -40514,10 +39444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:23</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44303.50234953704</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40589,10 +39517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:19</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44303.50230324074</v>
       </c>
       <c r="I546" t="n">
         <v>29</v>
@@ -40656,10 +39582,8 @@
           <t>4425931982</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:16</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44303.50226851852</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40738,10 +39662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:08</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44303.50217592593</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40813,10 +39735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:08</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44303.50217592593</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40892,10 +39812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:07</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44303.50216435185</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40959,10 +39877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:03:00</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44303.50208333333</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -41038,10 +39954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:55</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44303.50202546296</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -41113,10 +40027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:54</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44303.50201388889</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -41188,10 +40100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:53</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44303.50200231482</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41267,10 +40177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:51</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44303.50197916666</v>
       </c>
       <c r="I555" t="n">
         <v>2</v>
@@ -41346,10 +40254,8 @@
           <t>4425929616</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:47</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44303.50193287037</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -41421,10 +40327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:44</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44303.50189814815</v>
       </c>
       <c r="I557" t="n">
         <v>69</v>
@@ -41505,10 +40409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:43</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44303.50188657407</v>
       </c>
       <c r="I558" t="n">
         <v>14</v>
@@ -41573,10 +40475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:41</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44303.50186342592</v>
       </c>
       <c r="I559" t="n">
         <v>7</v>
@@ -41640,10 +40540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:36</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44303.50180555556</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41707,10 +40605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:35</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44303.50179398148</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41774,10 +40670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:31</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44303.50174768519</v>
       </c>
       <c r="I562" t="n">
         <v>16</v>
@@ -41841,10 +40735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:31</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44303.50174768519</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41904,10 +40796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:26</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44303.50168981482</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41983,10 +40873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:21</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44303.50163194445</v>
       </c>
       <c r="I565" t="n">
         <v>2</v>
@@ -42064,10 +40952,8 @@
           <t>4425930276</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:20</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44303.50162037037</v>
       </c>
       <c r="I566" t="n">
         <v>108</v>
@@ -42143,10 +41029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:14</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44303.50155092592</v>
       </c>
       <c r="I567" t="n">
         <v>1</v>
@@ -42210,10 +41094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:13</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44303.50153935186</v>
       </c>
       <c r="I568" t="n">
         <v>10</v>
@@ -42290,10 +41172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:12</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44303.50152777778</v>
       </c>
       <c r="I569" t="n">
         <v>50</v>
@@ -42365,10 +41245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:12</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44303.50152777778</v>
       </c>
       <c r="I570" t="n">
         <v>40</v>
@@ -42436,10 +41314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:10</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44303.50150462963</v>
       </c>
       <c r="I571" t="n">
         <v>22</v>
@@ -42503,10 +41379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:05</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44303.50144675926</v>
       </c>
       <c r="I572" t="n">
         <v>1</v>
@@ -42587,10 +41461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:04</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44303.50143518519</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42654,10 +41526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:02:02</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44303.50141203704</v>
       </c>
       <c r="I574" t="n">
         <v>1</v>
@@ -42729,10 +41599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:59</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44303.50137731482</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42804,10 +41672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:49</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44303.50126157407</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42871,10 +41737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:47</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44303.50123842592</v>
       </c>
       <c r="I577" t="n">
         <v>21</v>
@@ -42938,10 +41802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:44</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44303.5012037037</v>
       </c>
       <c r="I578" t="n">
         <v>10</v>
@@ -43017,10 +41879,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:41</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44303.50116898148</v>
       </c>
       <c r="I579" t="n">
         <v>8</v>
@@ -43096,10 +41956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:38</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44303.50113425926</v>
       </c>
       <c r="I580" t="n">
         <v>135</v>
@@ -43163,10 +42021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:38</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44303.50113425926</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43242,10 +42098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:36</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44303.50111111111</v>
       </c>
       <c r="I582" t="n">
         <v>1</v>
@@ -43317,10 +42171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:36</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44303.50111111111</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -43384,10 +42236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:33</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44303.50107638889</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43459,10 +42309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:28</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44303.50101851852</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43526,10 +42374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:25</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44303.50098379629</v>
       </c>
       <c r="I586" t="n">
         <v>1</v>
@@ -43605,10 +42451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:23</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44303.50096064815</v>
       </c>
       <c r="I587" t="n">
         <v>34</v>
@@ -43684,10 +42528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:17</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44303.5008912037</v>
       </c>
       <c r="I588" t="n">
         <v>10</v>
@@ -43751,10 +42593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:11</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44303.50082175926</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43818,10 +42658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:09</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44303.50079861111</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43889,10 +42727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:01:01</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44303.50070601852</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43960,10 +42796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:58</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44303.50067129629</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -44023,10 +42857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:56</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44303.50064814815</v>
       </c>
       <c r="I593" t="n">
         <v>3</v>
@@ -44094,10 +42926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:56</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44303.50064814815</v>
       </c>
       <c r="I594" t="n">
         <v>22</v>
@@ -44173,10 +43003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:54</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44303.500625</v>
       </c>
       <c r="I595" t="n">
         <v>5</v>
@@ -44244,10 +43072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:54</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44303.500625</v>
       </c>
       <c r="I596" t="n">
         <v>14</v>
@@ -44319,10 +43145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:53</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44303.50061342592</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44390,10 +43214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:53</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44303.50061342592</v>
       </c>
       <c r="I598" t="n">
         <v>3</v>
@@ -44453,10 +43275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:51</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44303.50059027778</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44528,10 +43348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:50</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44303.5005787037</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44599,10 +43417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:45</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44303.50052083333</v>
       </c>
       <c r="I601" t="n">
         <v>9</v>
@@ -44674,10 +43490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:42</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44303.50048611111</v>
       </c>
       <c r="I602" t="n">
         <v>5</v>
@@ -44741,10 +43555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:42</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44303.50048611111</v>
       </c>
       <c r="I603" t="n">
         <v>36</v>
@@ -44816,10 +43628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:39</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44303.50045138889</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44887,10 +43697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:37</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44303.50042824074</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44958,10 +43766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:37</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44303.50042824074</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -45037,10 +43843,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:36</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44303.50041666667</v>
       </c>
       <c r="I607" t="n">
         <v>8</v>
@@ -45116,10 +43920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:36</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44303.50041666667</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45195,10 +43997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:35</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44303.50040509259</v>
       </c>
       <c r="I609" t="n">
         <v>4</v>
@@ -45266,10 +44066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:35</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44303.50040509259</v>
       </c>
       <c r="I610" t="n">
         <v>11</v>
@@ -45345,10 +44143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:32</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44303.50037037037</v>
       </c>
       <c r="I611" t="n">
         <v>4</v>
@@ -45425,10 +44221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:31</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44303.50035879629</v>
       </c>
       <c r="I612" t="n">
         <v>918</v>
@@ -45496,10 +44290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:31</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44303.50035879629</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -45575,10 +44367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:28</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44303.50032407408</v>
       </c>
       <c r="I614" t="n">
         <v>13</v>
@@ -45650,10 +44440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:27</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44303.5003125</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45725,10 +44513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:27</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44303.5003125</v>
       </c>
       <c r="I616" t="n">
         <v>2</v>
@@ -45800,10 +44586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-04-17 12:00:20</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44303.50023148148</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
